--- a/bible02/bible list.xlsx
+++ b/bible02/bible list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="481">
   <si>
     <t>창세기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1413,6 +1413,61 @@
     <t>ヨハネの默示錄</t>
   </si>
   <si>
+    <t>Samuel_1</t>
+  </si>
+  <si>
+    <t>Samuel_2</t>
+  </si>
+  <si>
+    <t>Kings_1</t>
+  </si>
+  <si>
+    <t>Kings_2</t>
+  </si>
+  <si>
+    <t>Chronicles_1</t>
+  </si>
+  <si>
+    <t>Chronicles_2</t>
+  </si>
+  <si>
+    <t>SongofSolomon</t>
+  </si>
+  <si>
+    <t>Corinthians_1</t>
+  </si>
+  <si>
+    <t>Corinthians_2</t>
+  </si>
+  <si>
+    <t>Thessalonians_1</t>
+  </si>
+  <si>
+    <t>Thessalonians_2</t>
+  </si>
+  <si>
+    <t>Timothy_1</t>
+  </si>
+  <si>
+    <t>Timothy_2</t>
+  </si>
+  <si>
+    <t>Peter_1</t>
+  </si>
+  <si>
+    <t>Peter_2</t>
+  </si>
+  <si>
+    <t>John_1</t>
+  </si>
+  <si>
+    <t>John_2</t>
+  </si>
+  <si>
+    <t>John_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1421,69 +1476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Samuel_1</t>
-  </si>
-  <si>
-    <t>Samuel_2</t>
-  </si>
-  <si>
-    <t>Kings_1</t>
-  </si>
-  <si>
-    <t>Kings_2</t>
-  </si>
-  <si>
-    <t>Chronicles_1</t>
-  </si>
-  <si>
-    <t>Chronicles_2</t>
-  </si>
-  <si>
-    <t>SongofSolomon</t>
-  </si>
-  <si>
-    <t>Corinthians_1</t>
-  </si>
-  <si>
-    <t>Corinthians_2</t>
-  </si>
-  <si>
-    <t>Thessalonians_1</t>
-  </si>
-  <si>
-    <t>Thessalonians_2</t>
-  </si>
-  <si>
-    <t>Timothy_1</t>
-  </si>
-  <si>
-    <t>Timothy_2</t>
-  </si>
-  <si>
-    <t>Peter_1</t>
-  </si>
-  <si>
-    <t>Peter_2</t>
-  </si>
-  <si>
-    <t>John_1</t>
-  </si>
-  <si>
-    <t>John_2</t>
-  </si>
-  <si>
-    <t>John_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1763,195 +1755,399 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>55_timothy_2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54_timothy_1.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52_thessalonians_1.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51_colossians.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50_philippians.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49_ephesians.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47_corinthians_2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46_corinthians_1.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45_romans.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44_acts.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43_john.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42_luke.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41_mark.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_matthew.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39_malachi.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37_haggai.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36_zephaniah.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35_habakkuk.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34_nahum.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33_micah.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32_jonah.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31_obadiah.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_amos.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29_joel.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28_hosea.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27_daniel.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26_ezekiel.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25_lamentations.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24_jeremiah.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23_isaiah.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22_songofsolomon.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_ecclesiastes.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_proverbs.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_psalms.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_job.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_esther.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_nehemiah.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_chronicles_2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_chronicles_1.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_kings_2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_kings_1.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_samuel_2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;option value="01"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/option&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;option value="02"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;option value="03"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="04"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="05"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="06"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="07"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="08"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="09"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="10"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="12"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="13"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="14"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="15"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="16"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="17"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="18"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="19"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="20"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="21"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="22"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="23"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="24"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="25"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="26"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="27"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="28"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="29"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="30"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="31"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="32"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="33"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="34"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="35"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="36"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="37"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="38"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="39"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="40"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="41"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="42"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="43"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="44"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="45"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="46"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="47"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="48"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="49"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="50"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="51"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="52"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="53"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="54"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="55"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="56"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="57"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="58"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="59"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="60"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="61"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="62"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="63"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="64"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="65"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option value="66"&gt;</t>
+  </si>
+  <si>
+    <t>15_ezra.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38_zechariah.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48_galatians.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53_thessalonians_2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56_titus.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>57_philemon.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56_titus.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55_timothy_2.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54_timothy_1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53_thessalonians_2.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52_thessalonians_1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51_colossians.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50_philippians.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49_ephesians.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48_galatians.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47_corinthians_2.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46_corinthians_1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45_romans.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44_acts.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43_john.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42_luke.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41_mark.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40_matthew.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39_malachi.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38_zechariah.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37_haggai.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36_zephaniah.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35_habakkuk.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34_nahum.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33_micah.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32_jonah.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31_obadiah.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30_amos.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29_joel.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28_hosea.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27_daniel.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26_ezekiel.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25_lamentations.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24_jeremiah.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23_isaiah.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22_songofsolomon.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21_ecclesiastes.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_proverbs.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_psalms.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18_job.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17_esther.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_nehemiah.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15_ezra.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14_chronicles_2.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_chronicles_1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12_kings_2.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11_kings_1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10_samuel_2.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2338,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -2354,7 +2550,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>408</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2369,16 +2565,16 @@
         <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G1" t="str">
         <f>CONCATENATE(A1, B1,"  ", C1, "  ",D1, "  ", E1, F1)</f>
-        <v>"창세기  Genesis  创世纪  創世記",</v>
+        <v>&lt;option value="01"&gt;창세기  Genesis  创世纪  創世記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>410</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2393,16 +2589,16 @@
         <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G65" si="0">CONCATENATE(A2, B2,"  ", C2, "  ",D2, "  ", E2, F2)</f>
-        <v>"출애굽기  Exodus  出埃及记  出エジプト記",</v>
+        <v>&lt;option value="02"&gt;출애굽기  Exodus  出埃及记  出エジプト記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>411</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2417,16 +2613,16 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>"레위기  Leviticus  利未记  レビ記",</v>
+        <v>&lt;option value="03"&gt;레위기  Leviticus  利未记  レビ記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>412</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -2441,16 +2637,16 @@
         <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>"민수기  Numbers  民数记  民數記",</v>
+        <v>&lt;option value="04"&gt;민수기  Numbers  民数记  民數記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>413</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -2465,16 +2661,16 @@
         <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>"신명기  Dueterronomy  申命记  申命記",</v>
+        <v>&lt;option value="05"&gt;신명기  Dueterronomy  申命记  申命記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -2489,16 +2685,16 @@
         <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>"여호수아서  Joshua  约书亚记  ヨシュア記",</v>
+        <v>&lt;option value="06"&gt;여호수아서  Joshua  约书亚记  ヨシュア記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>415</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -2513,16 +2709,16 @@
         <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>"사사기  Judges  士师记  士師記",</v>
+        <v>&lt;option value="07"&gt;사사기  Judges  士师记  士師記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>416</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -2537,16 +2733,16 @@
         <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>"룻기  Ruth  路得记  ルツ記",</v>
+        <v>&lt;option value="08"&gt;룻기  Ruth  路得记  ルツ記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -2561,16 +2757,16 @@
         <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>"사무엘상  1 Samuel  撒母耳记上  サムエル記上",</v>
+        <v>&lt;option value="09"&gt;사무엘상  1 Samuel  撒母耳记上  サムエル記上&lt;/option&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>418</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -2585,16 +2781,16 @@
         <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>"사무엘하  2 Samuel  撒母耳记下  サムエル記下",</v>
+        <v>&lt;option value="10"&gt;사무엘하  2 Samuel  撒母耳记下  サムエル記下&lt;/option&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -2609,16 +2805,16 @@
         <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>"열왕기상  1 Kings  列王纪上  列王紀上",</v>
+        <v>&lt;option value="11"&gt;열왕기상  1 Kings  列王纪上  列王紀上&lt;/option&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>420</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -2633,16 +2829,16 @@
         <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>"열왕기하  2 Kings  列王纪下  列王紀下",</v>
+        <v>&lt;option value="12"&gt;열왕기하  2 Kings  列王纪下  列王紀下&lt;/option&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>421</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -2657,16 +2853,16 @@
         <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>"역대기상  1 Chronicles  历代志上  歷代志上",</v>
+        <v>&lt;option value="13"&gt;역대기상  1 Chronicles  历代志上  歷代志上&lt;/option&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>422</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -2681,16 +2877,16 @@
         <v>211</v>
       </c>
       <c r="F14" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>"역대기하  2 Chronicles  历代志下  歷代志下",</v>
+        <v>&lt;option value="14"&gt;역대기하  2 Chronicles  历代志下  歷代志下&lt;/option&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>423</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -2705,16 +2901,16 @@
         <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>"에스라서  Ezra  以斯拉记  エズラ記",</v>
+        <v>&lt;option value="15"&gt;에스라서  Ezra  以斯拉记  エズラ記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>424</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -2729,16 +2925,16 @@
         <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>"느헤미야서  Nehemiah  尼希米记  ネヘミヤ記",</v>
+        <v>&lt;option value="16"&gt;느헤미야서  Nehemiah  尼希米记  ネヘミヤ記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
@@ -2753,16 +2949,16 @@
         <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>"에스더서  Esther  以斯帖记  エステル記",</v>
+        <v>&lt;option value="17"&gt;에스더서  Esther  以斯帖记  エステル記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>426</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
@@ -2777,16 +2973,16 @@
         <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>"욥기  Job  约伯记  ヨブ記",</v>
+        <v>&lt;option value="18"&gt;욥기  Job  约伯记  ヨブ記&lt;/option&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>427</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -2801,16 +2997,16 @@
         <v>216</v>
       </c>
       <c r="F19" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>"시편  Psalms  诗篇  詩篇",</v>
+        <v>&lt;option value="19"&gt;시편  Psalms  诗篇  詩篇&lt;/option&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>428</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -2825,16 +3021,16 @@
         <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>"잠언  Proverbs  箴言  箴言",</v>
+        <v>&lt;option value="20"&gt;잠언  Proverbs  箴言  箴言&lt;/option&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>429</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
@@ -2849,16 +3045,16 @@
         <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>"전도서  Ecclesiastes  传道书  傳道の書",</v>
+        <v>&lt;option value="21"&gt;전도서  Ecclesiastes  传道书  傳道の書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>430</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -2873,16 +3069,16 @@
         <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>"아가  Song of Solomon  雅歌  雅歌",</v>
+        <v>&lt;option value="22"&gt;아가  Song of Solomon  雅歌  雅歌&lt;/option&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>431</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -2897,16 +3093,16 @@
         <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>"이사야서  Isaiah  以赛亚书  イザヤ書",</v>
+        <v>&lt;option value="23"&gt;이사야서  Isaiah  以赛亚书  イザヤ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>432</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -2921,16 +3117,16 @@
         <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>"예레미야서  Jeremiah  耶利米书  エレミヤ書",</v>
+        <v>&lt;option value="24"&gt;예레미야서  Jeremiah  耶利米书  エレミヤ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2945,16 +3141,16 @@
         <v>220</v>
       </c>
       <c r="F25" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>"예레미야애가  Lamentations  耶利米哀歌  哀歌",</v>
+        <v>&lt;option value="25"&gt;예레미야애가  Lamentations  耶利米哀歌  哀歌&lt;/option&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -2969,16 +3165,16 @@
         <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>"에스겔서  Ezekiel  以西结书  エゼキエル書",</v>
+        <v>&lt;option value="26"&gt;에스겔서  Ezekiel  以西结书  エゼキエル書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>435</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
@@ -2993,16 +3189,16 @@
         <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>"다니엘서  Daniel  但以理书  ダニエル書",</v>
+        <v>&lt;option value="27"&gt;다니엘서  Daniel  但以理书  ダニエル書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>436</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
@@ -3017,16 +3213,16 @@
         <v>223</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>"호세아서  Hosea  何西阿书  ホセア書",</v>
+        <v>&lt;option value="28"&gt;호세아서  Hosea  何西阿书  ホセア書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>437</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>28</v>
@@ -3041,16 +3237,16 @@
         <v>224</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>"요엘서  Joel  约珥书  ヨエル書",</v>
+        <v>&lt;option value="29"&gt;요엘서  Joel  约珥书  ヨエル書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
@@ -3065,16 +3261,16 @@
         <v>225</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>"아모스서  Amos  阿摩司书  アモス書",</v>
+        <v>&lt;option value="30"&gt;아모스서  Amos  阿摩司书  アモス書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>439</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
@@ -3089,16 +3285,16 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>"오바댜서  Obadiah  俄巴底亚书  オバデヤ書",</v>
+        <v>&lt;option value="31"&gt;오바댜서  Obadiah  俄巴底亚书  オバデヤ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>440</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
@@ -3113,16 +3309,16 @@
         <v>227</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>"요나서  Jonah  约拿书  ヨナ書",</v>
+        <v>&lt;option value="32"&gt;요나서  Jonah  约拿书  ヨナ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>441</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
@@ -3137,16 +3333,16 @@
         <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>"미가  Micah  弥迦书  ミカ書",</v>
+        <v>&lt;option value="33"&gt;미가  Micah  弥迦书  ミカ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>442</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -3161,16 +3357,16 @@
         <v>229</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>"나훔  Nahum  那鸿书  ナホム書",</v>
+        <v>&lt;option value="34"&gt;나훔  Nahum  那鸿书  ナホム書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>443</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
@@ -3185,16 +3381,16 @@
         <v>230</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>"하박국  Habakkuk  哈巴谷书  ハバクク書",</v>
+        <v>&lt;option value="35"&gt;하박국  Habakkuk  哈巴谷书  ハバクク書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>35</v>
@@ -3209,16 +3405,16 @@
         <v>231</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>"스바냐  Zephaniah  西番雅书  ゼパニヤ書",</v>
+        <v>&lt;option value="36"&gt;스바냐  Zephaniah  西番雅书  ゼパニヤ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>445</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
@@ -3233,16 +3429,16 @@
         <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>"학개  Haggai  哈该书  ハガイ書",</v>
+        <v>&lt;option value="37"&gt;학개  Haggai  哈该书  ハガイ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
@@ -3257,16 +3453,16 @@
         <v>233</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>"스가랴  Zechariah  撒迦利亚书  ゼカリヤ書",</v>
+        <v>&lt;option value="38"&gt;스가랴  Zechariah  撒迦利亚书  ゼカリヤ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>447</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>38</v>
@@ -3281,16 +3477,16 @@
         <v>234</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>"말라기  Malachi  玛拉基书  マラキ書",</v>
+        <v>&lt;option value="39"&gt;말라기  Malachi  玛拉基书  マラキ書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>448</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -3305,16 +3501,16 @@
         <v>235</v>
       </c>
       <c r="F40" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>"마태복음  Matthew  马太福音  マタイによる福音書",</v>
+        <v>&lt;option value="40"&gt;마태복음  Matthew  马太福音  マタイによる福音書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>449</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -3329,16 +3525,16 @@
         <v>236</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>"마가복음  Mark  马可福音  マルコによる福音書",</v>
+        <v>&lt;option value="41"&gt;마가복음  Mark  马可福音  マルコによる福音書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -3353,16 +3549,16 @@
         <v>237</v>
       </c>
       <c r="F42" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>"누가복음  Luke  路加福音  ルカによる福音書",</v>
+        <v>&lt;option value="42"&gt;누가복음  Luke  路加福音  ルカによる福音書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>451</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -3377,16 +3573,16 @@
         <v>238</v>
       </c>
       <c r="F43" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>"요한복음  John  约翰福音  ヨハネによる福音書",</v>
+        <v>&lt;option value="43"&gt;요한복음  John  约翰福音  ヨハネによる福音書&lt;/option&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>65</v>
@@ -3401,16 +3597,16 @@
         <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>"사도행전  Acts  使徒行传  使徒行傳",</v>
+        <v>&lt;option value="44"&gt;사도행전  Acts  使徒行传  使徒行傳&lt;/option&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>453</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>64</v>
@@ -3425,16 +3621,16 @@
         <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>"로마서  Romans  罗马书  ロ―マ人への手紙",</v>
+        <v>&lt;option value="45"&gt;로마서  Romans  罗马书  ロ―マ人への手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>454</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>63</v>
@@ -3449,16 +3645,16 @@
         <v>241</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>"고린도전서  1 Corinthians  歌林多前书  コリント人への第一の手紙",</v>
+        <v>&lt;option value="46"&gt;고린도전서  1 Corinthians  歌林多前书  コリント人への第一の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17">
       <c r="A47" t="s">
-        <v>262</v>
+        <v>455</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>62</v>
@@ -3473,16 +3669,16 @@
         <v>242</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>"고린도후서  2 Corinthians  歌林多后书  コリント人への第二の手紙",</v>
+        <v>&lt;option value="47"&gt;고린도후서  2 Corinthians  歌林多后书  コリント人への第二の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>456</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>61</v>
@@ -3497,16 +3693,16 @@
         <v>243</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>"갈라디아서  Galatians  加拉太书  ガラテヤ人への手紙",</v>
+        <v>&lt;option value="48"&gt;갈라디아서  Galatians  加拉太书  ガラテヤ人への手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>457</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>60</v>
@@ -3521,16 +3717,16 @@
         <v>244</v>
       </c>
       <c r="F49" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>"에베소서  Ephesians  以弗所书  エペソ人への手紙",</v>
+        <v>&lt;option value="49"&gt;에베소서  Ephesians  以弗所书  エペソ人への手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>458</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>59</v>
@@ -3545,16 +3741,16 @@
         <v>245</v>
       </c>
       <c r="F50" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>"빌립보서  Philippians  腓利比书  ピリピ人への手紙",</v>
+        <v>&lt;option value="50"&gt;빌립보서  Philippians  腓利比书  ピリピ人への手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>459</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>58</v>
@@ -3569,16 +3765,16 @@
         <v>246</v>
       </c>
       <c r="F51" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>"골로새서  Colossians  歌罗西书  コロサイ人への手紙",</v>
+        <v>&lt;option value="51"&gt;골로새서  Colossians  歌罗西书  コロサイ人への手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>460</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>57</v>
@@ -3593,16 +3789,16 @@
         <v>247</v>
       </c>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>"데살로니가전서  1 Thessalonians  帖撒罗尼迦前书  テサロニケ人への第一の手紙",</v>
+        <v>&lt;option value="52"&gt;데살로니가전서  1 Thessalonians  帖撒罗尼迦前书  テサロニケ人への第一の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>461</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>56</v>
@@ -3617,16 +3813,16 @@
         <v>248</v>
       </c>
       <c r="F53" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>"데살로니가후서  2 Thessalonians  帖撒罗尼迦后书  テサロニケ人への第二の手紙",</v>
+        <v>&lt;option value="53"&gt;데살로니가후서  2 Thessalonians  帖撒罗尼迦后书  テサロニケ人への第二の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17">
       <c r="A54" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>55</v>
@@ -3641,16 +3837,16 @@
         <v>249</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>"디모데전서  1 Timothy  提摩太前书  テモテへの第一の手紙",</v>
+        <v>&lt;option value="54"&gt;디모데전서  1 Timothy  提摩太前书  テモテへの第一の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>463</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -3665,16 +3861,16 @@
         <v>250</v>
       </c>
       <c r="F55" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>"디모데후서  2 Timothy  提摩太后书  テモテへの第二の手紙",</v>
+        <v>&lt;option value="55"&gt;디모데후서  2 Timothy  提摩太后书  テモテへの第二の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>464</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>53</v>
@@ -3689,16 +3885,16 @@
         <v>251</v>
       </c>
       <c r="F56" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>"디도서  Titus  提多书  テトスへの手紙",</v>
+        <v>&lt;option value="56"&gt;디도서  Titus  提多书  テトスへの手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>465</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>52</v>
@@ -3713,16 +3909,16 @@
         <v>252</v>
       </c>
       <c r="F57" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>"빌레몬서  Philemon  腓利门书  ピレモンへの手紙",</v>
+        <v>&lt;option value="57"&gt;빌레몬서  Philemon  腓利门书  ピレモンへの手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>466</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>51</v>
@@ -3737,16 +3933,16 @@
         <v>253</v>
       </c>
       <c r="F58" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>"히브리서  Hebrews  希伯来书  ヘブル人への手紙",</v>
+        <v>&lt;option value="58"&gt;히브리서  Hebrews  希伯来书  ヘブル人への手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>467</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
@@ -3761,16 +3957,16 @@
         <v>254</v>
       </c>
       <c r="F59" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>"야고보서  James  雅各书  ヤコブの手紙",</v>
+        <v>&lt;option value="59"&gt;야고보서  James  雅各书  ヤコブの手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>468</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>49</v>
@@ -3785,16 +3981,16 @@
         <v>255</v>
       </c>
       <c r="F60" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>"베드로전서  1 Peter  彼得前书  ペテロの第一の手紙",</v>
+        <v>&lt;option value="60"&gt;베드로전서  1 Peter  彼得前书  ペテロの第一の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>469</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>48</v>
@@ -3809,16 +4005,16 @@
         <v>256</v>
       </c>
       <c r="F61" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>"베드로후서  2 Peter  彼得后书  ペテロの第二の手紙",</v>
+        <v>&lt;option value="61"&gt;베드로후서  2 Peter  彼得后书  ペテロの第二の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17">
       <c r="A62" t="s">
-        <v>262</v>
+        <v>470</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>47</v>
@@ -3833,16 +4029,16 @@
         <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>"요한1서  1 John  约翰一书  ヨハネの第一の手紙",</v>
+        <v>&lt;option value="62"&gt;요한1서  1 John  约翰一书  ヨハネの第一の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17">
       <c r="A63" t="s">
-        <v>262</v>
+        <v>471</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>46</v>
@@ -3857,16 +4053,16 @@
         <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>"요한2서  2 John  约翰二书  ヨハネの第二の手紙",</v>
+        <v>&lt;option value="63"&gt;요한2서  2 John  约翰二书  ヨハネの第二の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>45</v>
@@ -3881,16 +4077,16 @@
         <v>259</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>"요한3서  3 John  约翰三书  ヨハネの第三の手紙",</v>
+        <v>&lt;option value="64"&gt;요한3서  3 John  约翰三书  ヨハネの第三の手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>473</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>44</v>
@@ -3905,16 +4101,16 @@
         <v>260</v>
       </c>
       <c r="F65" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>"유다서  Jude  犹大书  ユダの手紙",</v>
+        <v>&lt;option value="65"&gt;유다서  Jude  犹大书  ユダの手紙&lt;/option&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17">
       <c r="A66" t="s">
-        <v>262</v>
+        <v>474</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>43</v>
@@ -3929,11 +4125,11 @@
         <v>261</v>
       </c>
       <c r="F66" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ref="G66" si="1">CONCATENATE(A66, B66,"  ", C66, "  ",D66, "  ", E66, F66)</f>
-        <v>"요한계시록  Revelation  启示录  ヨハネの默示錄",</v>
+        <v>&lt;option value="66"&gt;요한계시록  Revelation  启示录  ヨハネの默示錄&lt;/option&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17">
@@ -4400,1402 +4596,1402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D41" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
     <col min="6" max="6" width="28.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" t="s">
         <v>282</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E1" t="str">
         <f>CONCATENATE(B1, LOWER(C1), ".json")</f>
         <v>01_genesis.json</v>
       </c>
       <c r="F1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E65" si="0">CONCATENATE(B2, LOWER(C2), ".json")</f>
         <v>02_exodus.json</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
         <v>03_leviticus.json</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>04_numbers.json</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>05_dueterronomy.json</v>
       </c>
       <c r="F5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>06_joshua.json</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>07_judges.json</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>08_ruth.json</v>
       </c>
       <c r="F8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>09_samuel_1.json</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>10_samuel_2.json</v>
       </c>
       <c r="F10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>11_kings_1.json</v>
       </c>
       <c r="F11" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>12_kings_2.json</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>13_chronicles_1.json</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>14_chronicles_2.json</v>
       </c>
       <c r="F14" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>15_ezra.json</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>16_nehemiah.json</v>
       </c>
       <c r="F16" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>17_esther.json</v>
       </c>
       <c r="F17" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>18_job.json</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>19_psalms.json</v>
       </c>
       <c r="F19" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>20_proverbs.json</v>
       </c>
       <c r="F20" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>21_ecclesiastes.json</v>
       </c>
       <c r="F21" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>22_songofsolomon.json</v>
       </c>
       <c r="F22" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>23_isaiah.json</v>
       </c>
       <c r="F23" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>24_jeremiah.json</v>
       </c>
       <c r="F24" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>25_lamentations.json</v>
       </c>
       <c r="F25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>26_ezekiel.json</v>
       </c>
       <c r="F26" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>27_daniel.json</v>
       </c>
       <c r="F27" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>28_hosea.json</v>
       </c>
       <c r="F28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>29_joel.json</v>
       </c>
       <c r="F29" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>30_amos.json</v>
       </c>
       <c r="F30" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>31_obadiah.json</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>32_jonah.json</v>
       </c>
       <c r="F32" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>33_micah.json</v>
       </c>
       <c r="F33" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>34_nahum.json</v>
       </c>
       <c r="F34" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>35_habakkuk.json</v>
       </c>
       <c r="F35" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>36_zephaniah.json</v>
       </c>
       <c r="F36" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>37_haggai.json</v>
       </c>
       <c r="F37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>38_zechariah.json</v>
       </c>
       <c r="F38" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>39_malachi.json</v>
       </c>
       <c r="F39" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>40_matthew.json</v>
       </c>
       <c r="F40" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>41_mark.json</v>
       </c>
       <c r="F41" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>42_luke.json</v>
       </c>
       <c r="F42" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>43_john.json</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>44_acts.json</v>
       </c>
       <c r="F44" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>45_romans.json</v>
       </c>
       <c r="F45" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>46_corinthians_1.json</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>47_corinthians_2.json</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v>48_galatians.json</v>
       </c>
       <c r="F48" t="s">
-        <v>377</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
         <v>49_ephesians.json</v>
       </c>
       <c r="F49" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>50_philippians.json</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
         <v>51_colossians.json</v>
       </c>
       <c r="F51" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
         <v>52_thessalonians_1.json</v>
       </c>
       <c r="F52" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
         <v>53_thessalonians_2.json</v>
       </c>
       <c r="F53" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
         <v>54_timothy_1.json</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
         <v>55_timothy_2.json</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v>56_titus.json</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
         <v>57_philemon.json</v>
       </c>
       <c r="F57" t="s">
-        <v>368</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
         <v>58_hebrews.json</v>
       </c>
       <c r="F58" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
         <v>59_james.json</v>
       </c>
       <c r="F59" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
         <v>60_peter_1.json</v>
       </c>
       <c r="F60" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
         <v>61_peter_2.json</v>
       </c>
       <c r="F61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D62" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
         <v>62_john_1.json</v>
       </c>
       <c r="F62" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D63" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
         <v>63_john_2.json</v>
       </c>
       <c r="F63" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>64_john_3.json</v>
       </c>
       <c r="F64" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>65_jude.json</v>
       </c>
       <c r="F65" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ref="E66" si="1">CONCATENATE(B66, LOWER(C66), ".json")</f>
         <v>66_revelation.json</v>
       </c>
       <c r="F66" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/bible02/bible list.xlsx
+++ b/bible02/bible list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="80" windowWidth="9260" windowHeight="13280" activeTab="1"/>
+    <workbookView xWindow="320" yWindow="80" windowWidth="9260" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="416">
   <si>
     <t>창세기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1923,210 +1923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;option value="01"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/option&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;option value="02"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;option value="03"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="04"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="05"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="06"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="07"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="08"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="09"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="10"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="11"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="12"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="13"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="14"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="15"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="16"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="17"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="18"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="19"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="20"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="21"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="22"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="23"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="24"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="25"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="26"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="27"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="28"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="29"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="30"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="31"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="32"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="33"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="34"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="35"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="36"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="37"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="38"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="39"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="40"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="41"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="42"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="43"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="44"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="45"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="46"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="47"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="48"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="49"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="50"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="51"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="52"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="53"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="54"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="55"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="56"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="57"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="58"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="59"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="60"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="61"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="62"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="63"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="64"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="65"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;option value="66"&gt;</t>
-  </si>
-  <si>
     <t>15_ezra.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2148,6 +1944,14 @@
   </si>
   <si>
     <t>57_philemon.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk = "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>";</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2534,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -2550,7 +2354,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17">
       <c r="A1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2565,16 +2369,16 @@
         <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G1" t="str">
         <f>CONCATENATE(A1, B1,"  ", C1, "  ",D1, "  ", E1, F1)</f>
-        <v>&lt;option value="01"&gt;창세기  Genesis  创世纪  創世記&lt;/option&gt;</v>
+        <v>bk = "창세기  Genesis  创世纪  創世記";</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2589,16 +2393,16 @@
         <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G65" si="0">CONCATENATE(A2, B2,"  ", C2, "  ",D2, "  ", E2, F2)</f>
-        <v>&lt;option value="02"&gt;출애굽기  Exodus  出埃及记  出エジプト記&lt;/option&gt;</v>
+        <v>bk = "출애굽기  Exodus  出埃及记  出エジプト記";</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2613,16 +2417,16 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="03"&gt;레위기  Leviticus  利未记  レビ記&lt;/option&gt;</v>
+        <v>bk = "레위기  Leviticus  利未记  レビ記";</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -2637,16 +2441,16 @@
         <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="04"&gt;민수기  Numbers  民数记  民數記&lt;/option&gt;</v>
+        <v>bk = "민수기  Numbers  民数记  民數記";</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -2661,11 +2465,11 @@
         <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="05"&gt;신명기  Dueterronomy  申命记  申命記&lt;/option&gt;</v>
+        <v>bk = "신명기  Dueterronomy  申命记  申命記";</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17">
@@ -2685,16 +2489,16 @@
         <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="06"&gt;여호수아서  Joshua  约书亚记  ヨシュア記&lt;/option&gt;</v>
+        <v>bk = "여호수아서  Joshua  约书亚记  ヨシュア記";</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -2709,16 +2513,16 @@
         <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="07"&gt;사사기  Judges  士师记  士師記&lt;/option&gt;</v>
+        <v>bk = "사사기  Judges  士师记  士師記";</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -2733,16 +2537,16 @@
         <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="08"&gt;룻기  Ruth  路得记  ルツ記&lt;/option&gt;</v>
+        <v>bk = "룻기  Ruth  路得记  ルツ記";</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -2757,16 +2561,16 @@
         <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="09"&gt;사무엘상  1 Samuel  撒母耳记上  サムエル記上&lt;/option&gt;</v>
+        <v>bk = "사무엘상  1 Samuel  撒母耳记上  サムエル記上";</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -2781,16 +2585,16 @@
         <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="10"&gt;사무엘하  2 Samuel  撒母耳记下  サムエル記下&lt;/option&gt;</v>
+        <v>bk = "사무엘하  2 Samuel  撒母耳记下  サムエル記下";</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -2805,16 +2609,16 @@
         <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="11"&gt;열왕기상  1 Kings  列王纪上  列王紀上&lt;/option&gt;</v>
+        <v>bk = "열왕기상  1 Kings  列王纪上  列王紀上";</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -2829,16 +2633,16 @@
         <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="12"&gt;열왕기하  2 Kings  列王纪下  列王紀下&lt;/option&gt;</v>
+        <v>bk = "열왕기하  2 Kings  列王纪下  列王紀下";</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -2853,16 +2657,16 @@
         <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="13"&gt;역대기상  1 Chronicles  历代志上  歷代志上&lt;/option&gt;</v>
+        <v>bk = "역대기상  1 Chronicles  历代志上  歷代志上";</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -2877,16 +2681,16 @@
         <v>211</v>
       </c>
       <c r="F14" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="14"&gt;역대기하  2 Chronicles  历代志下  歷代志下&lt;/option&gt;</v>
+        <v>bk = "역대기하  2 Chronicles  历代志下  歷代志下";</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -2901,16 +2705,16 @@
         <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="15"&gt;에스라서  Ezra  以斯拉记  エズラ記&lt;/option&gt;</v>
+        <v>bk = "에스라서  Ezra  以斯拉记  エズラ記";</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -2925,16 +2729,16 @@
         <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="16"&gt;느헤미야서  Nehemiah  尼希米记  ネヘミヤ記&lt;/option&gt;</v>
+        <v>bk = "느헤미야서  Nehemiah  尼希米记  ネヘミヤ記";</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
@@ -2949,16 +2753,16 @@
         <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="17"&gt;에스더서  Esther  以斯帖记  エステル記&lt;/option&gt;</v>
+        <v>bk = "에스더서  Esther  以斯帖记  エステル記";</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
@@ -2973,16 +2777,16 @@
         <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="18"&gt;욥기  Job  约伯记  ヨブ記&lt;/option&gt;</v>
+        <v>bk = "욥기  Job  约伯记  ヨブ記";</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -2997,16 +2801,16 @@
         <v>216</v>
       </c>
       <c r="F19" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="19"&gt;시편  Psalms  诗篇  詩篇&lt;/option&gt;</v>
+        <v>bk = "시편  Psalms  诗篇  詩篇";</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17">
       <c r="A20" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -3021,16 +2825,16 @@
         <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="20"&gt;잠언  Proverbs  箴言  箴言&lt;/option&gt;</v>
+        <v>bk = "잠언  Proverbs  箴言  箴言";</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
@@ -3045,16 +2849,16 @@
         <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="21"&gt;전도서  Ecclesiastes  传道书  傳道の書&lt;/option&gt;</v>
+        <v>bk = "전도서  Ecclesiastes  传道书  傳道の書";</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17">
       <c r="A22" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -3069,16 +2873,16 @@
         <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="22"&gt;아가  Song of Solomon  雅歌  雅歌&lt;/option&gt;</v>
+        <v>bk = "아가  Song of Solomon  雅歌  雅歌";</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17">
       <c r="A23" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -3093,16 +2897,16 @@
         <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="23"&gt;이사야서  Isaiah  以赛亚书  イザヤ書&lt;/option&gt;</v>
+        <v>bk = "이사야서  Isaiah  以赛亚书  イザヤ書";</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17">
       <c r="A24" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -3117,16 +2921,16 @@
         <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="24"&gt;예레미야서  Jeremiah  耶利米书  エレミヤ書&lt;/option&gt;</v>
+        <v>bk = "예레미야서  Jeremiah  耶利米书  エレミヤ書";</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -3141,16 +2945,16 @@
         <v>220</v>
       </c>
       <c r="F25" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="25"&gt;예레미야애가  Lamentations  耶利米哀歌  哀歌&lt;/option&gt;</v>
+        <v>bk = "예레미야애가  Lamentations  耶利米哀歌  哀歌";</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -3165,16 +2969,16 @@
         <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="26"&gt;에스겔서  Ezekiel  以西结书  エゼキエル書&lt;/option&gt;</v>
+        <v>bk = "에스겔서  Ezekiel  以西结书  エゼキエル書";</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17">
       <c r="A27" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
@@ -3189,16 +2993,16 @@
         <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="27"&gt;다니엘서  Daniel  但以理书  ダニエル書&lt;/option&gt;</v>
+        <v>bk = "다니엘서  Daniel  但以理书  ダニエル書";</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17">
       <c r="A28" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
@@ -3213,16 +3017,16 @@
         <v>223</v>
       </c>
       <c r="F28" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="28"&gt;호세아서  Hosea  何西阿书  ホセア書&lt;/option&gt;</v>
+        <v>bk = "호세아서  Hosea  何西阿书  ホセア書";</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17">
       <c r="A29" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>28</v>
@@ -3237,16 +3041,16 @@
         <v>224</v>
       </c>
       <c r="F29" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="29"&gt;요엘서  Joel  约珥书  ヨエル書&lt;/option&gt;</v>
+        <v>bk = "요엘서  Joel  约珥书  ヨエル書";</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17">
       <c r="A30" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
@@ -3261,16 +3065,16 @@
         <v>225</v>
       </c>
       <c r="F30" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="30"&gt;아모스서  Amos  阿摩司书  アモス書&lt;/option&gt;</v>
+        <v>bk = "아모스서  Amos  阿摩司书  アモス書";</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17">
       <c r="A31" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
@@ -3285,16 +3089,16 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="31"&gt;오바댜서  Obadiah  俄巴底亚书  オバデヤ書&lt;/option&gt;</v>
+        <v>bk = "오바댜서  Obadiah  俄巴底亚书  オバデヤ書";</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
@@ -3309,16 +3113,16 @@
         <v>227</v>
       </c>
       <c r="F32" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="32"&gt;요나서  Jonah  约拿书  ヨナ書&lt;/option&gt;</v>
+        <v>bk = "요나서  Jonah  约拿书  ヨナ書";</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17">
       <c r="A33" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
@@ -3333,16 +3137,16 @@
         <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="33"&gt;미가  Micah  弥迦书  ミカ書&lt;/option&gt;</v>
+        <v>bk = "미가  Micah  弥迦书  ミカ書";</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17">
       <c r="A34" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -3357,16 +3161,16 @@
         <v>229</v>
       </c>
       <c r="F34" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="34"&gt;나훔  Nahum  那鸿书  ナホム書&lt;/option&gt;</v>
+        <v>bk = "나훔  Nahum  那鸿书  ナホム書";</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17">
       <c r="A35" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
@@ -3381,16 +3185,16 @@
         <v>230</v>
       </c>
       <c r="F35" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="35"&gt;하박국  Habakkuk  哈巴谷书  ハバクク書&lt;/option&gt;</v>
+        <v>bk = "하박국  Habakkuk  哈巴谷书  ハバクク書";</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17">
       <c r="A36" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>35</v>
@@ -3405,16 +3209,16 @@
         <v>231</v>
       </c>
       <c r="F36" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="36"&gt;스바냐  Zephaniah  西番雅书  ゼパニヤ書&lt;/option&gt;</v>
+        <v>bk = "스바냐  Zephaniah  西番雅书  ゼパニヤ書";</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17">
       <c r="A37" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
@@ -3429,16 +3233,16 @@
         <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="37"&gt;학개  Haggai  哈该书  ハガイ書&lt;/option&gt;</v>
+        <v>bk = "학개  Haggai  哈该书  ハガイ書";</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17">
       <c r="A38" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
@@ -3453,16 +3257,16 @@
         <v>233</v>
       </c>
       <c r="F38" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="38"&gt;스가랴  Zechariah  撒迦利亚书  ゼカリヤ書&lt;/option&gt;</v>
+        <v>bk = "스가랴  Zechariah  撒迦利亚书  ゼカリヤ書";</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17">
       <c r="A39" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>38</v>
@@ -3477,16 +3281,16 @@
         <v>234</v>
       </c>
       <c r="F39" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="39"&gt;말라기  Malachi  玛拉基书  マラキ書&lt;/option&gt;</v>
+        <v>bk = "말라기  Malachi  玛拉基书  マラキ書";</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17">
       <c r="A40" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -3501,16 +3305,16 @@
         <v>235</v>
       </c>
       <c r="F40" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="40"&gt;마태복음  Matthew  马太福音  マタイによる福音書&lt;/option&gt;</v>
+        <v>bk = "마태복음  Matthew  马太福音  マタイによる福音書";</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17">
       <c r="A41" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -3525,16 +3329,16 @@
         <v>236</v>
       </c>
       <c r="F41" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="41"&gt;마가복음  Mark  马可福音  マルコによる福音書&lt;/option&gt;</v>
+        <v>bk = "마가복음  Mark  马可福音  マルコによる福音書";</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17">
       <c r="A42" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -3549,16 +3353,16 @@
         <v>237</v>
       </c>
       <c r="F42" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="42"&gt;누가복음  Luke  路加福音  ルカによる福音書&lt;/option&gt;</v>
+        <v>bk = "누가복음  Luke  路加福音  ルカによる福音書";</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17">
       <c r="A43" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -3573,16 +3377,16 @@
         <v>238</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="43"&gt;요한복음  John  约翰福音  ヨハネによる福音書&lt;/option&gt;</v>
+        <v>bk = "요한복음  John  约翰福音  ヨハネによる福音書";</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17">
       <c r="A44" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>65</v>
@@ -3597,16 +3401,16 @@
         <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="44"&gt;사도행전  Acts  使徒行传  使徒行傳&lt;/option&gt;</v>
+        <v>bk = "사도행전  Acts  使徒行传  使徒行傳";</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17">
       <c r="A45" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>64</v>
@@ -3621,16 +3425,16 @@
         <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="45"&gt;로마서  Romans  罗马书  ロ―マ人への手紙&lt;/option&gt;</v>
+        <v>bk = "로마서  Romans  罗马书  ロ―マ人への手紙";</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>63</v>
@@ -3645,16 +3449,16 @@
         <v>241</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="46"&gt;고린도전서  1 Corinthians  歌林多前书  コリント人への第一の手紙&lt;/option&gt;</v>
+        <v>bk = "고린도전서  1 Corinthians  歌林多前书  コリント人への第一の手紙";</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17">
       <c r="A47" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>62</v>
@@ -3669,16 +3473,16 @@
         <v>242</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="47"&gt;고린도후서  2 Corinthians  歌林多后书  コリント人への第二の手紙&lt;/option&gt;</v>
+        <v>bk = "고린도후서  2 Corinthians  歌林多后书  コリント人への第二の手紙";</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17">
       <c r="A48" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>61</v>
@@ -3693,16 +3497,16 @@
         <v>243</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="48"&gt;갈라디아서  Galatians  加拉太书  ガラテヤ人への手紙&lt;/option&gt;</v>
+        <v>bk = "갈라디아서  Galatians  加拉太书  ガラテヤ人への手紙";</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17">
       <c r="A49" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>60</v>
@@ -3717,16 +3521,16 @@
         <v>244</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="49"&gt;에베소서  Ephesians  以弗所书  エペソ人への手紙&lt;/option&gt;</v>
+        <v>bk = "에베소서  Ephesians  以弗所书  エペソ人への手紙";</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17">
       <c r="A50" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>59</v>
@@ -3741,16 +3545,16 @@
         <v>245</v>
       </c>
       <c r="F50" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="50"&gt;빌립보서  Philippians  腓利比书  ピリピ人への手紙&lt;/option&gt;</v>
+        <v>bk = "빌립보서  Philippians  腓利比书  ピリピ人への手紙";</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17">
       <c r="A51" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>58</v>
@@ -3765,16 +3569,16 @@
         <v>246</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="51"&gt;골로새서  Colossians  歌罗西书  コロサイ人への手紙&lt;/option&gt;</v>
+        <v>bk = "골로새서  Colossians  歌罗西书  コロサイ人への手紙";</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17">
       <c r="A52" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>57</v>
@@ -3789,16 +3593,16 @@
         <v>247</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="52"&gt;데살로니가전서  1 Thessalonians  帖撒罗尼迦前书  テサロニケ人への第一の手紙&lt;/option&gt;</v>
+        <v>bk = "데살로니가전서  1 Thessalonians  帖撒罗尼迦前书  テサロニケ人への第一の手紙";</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17">
       <c r="A53" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>56</v>
@@ -3813,16 +3617,16 @@
         <v>248</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="53"&gt;데살로니가후서  2 Thessalonians  帖撒罗尼迦后书  テサロニケ人への第二の手紙&lt;/option&gt;</v>
+        <v>bk = "데살로니가후서  2 Thessalonians  帖撒罗尼迦后书  テサロニケ人への第二の手紙";</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17">
       <c r="A54" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>55</v>
@@ -3837,16 +3641,16 @@
         <v>249</v>
       </c>
       <c r="F54" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="54"&gt;디모데전서  1 Timothy  提摩太前书  テモテへの第一の手紙&lt;/option&gt;</v>
+        <v>bk = "디모데전서  1 Timothy  提摩太前书  テモテへの第一の手紙";</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17">
       <c r="A55" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -3861,16 +3665,16 @@
         <v>250</v>
       </c>
       <c r="F55" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="55"&gt;디모데후서  2 Timothy  提摩太后书  テモテへの第二の手紙&lt;/option&gt;</v>
+        <v>bk = "디모데후서  2 Timothy  提摩太后书  テモテへの第二の手紙";</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17">
       <c r="A56" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>53</v>
@@ -3885,16 +3689,16 @@
         <v>251</v>
       </c>
       <c r="F56" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="56"&gt;디도서  Titus  提多书  テトスへの手紙&lt;/option&gt;</v>
+        <v>bk = "디도서  Titus  提多书  テトスへの手紙";</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17">
       <c r="A57" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>52</v>
@@ -3909,16 +3713,16 @@
         <v>252</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="57"&gt;빌레몬서  Philemon  腓利门书  ピレモンへの手紙&lt;/option&gt;</v>
+        <v>bk = "빌레몬서  Philemon  腓利门书  ピレモンへの手紙";</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17">
       <c r="A58" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>51</v>
@@ -3933,16 +3737,16 @@
         <v>253</v>
       </c>
       <c r="F58" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="58"&gt;히브리서  Hebrews  希伯来书  ヘブル人への手紙&lt;/option&gt;</v>
+        <v>bk = "히브리서  Hebrews  希伯来书  ヘブル人への手紙";</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17">
       <c r="A59" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
@@ -3957,16 +3761,16 @@
         <v>254</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="59"&gt;야고보서  James  雅各书  ヤコブの手紙&lt;/option&gt;</v>
+        <v>bk = "야고보서  James  雅各书  ヤコブの手紙";</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17">
       <c r="A60" t="s">
-        <v>468</v>
+        <v>414</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>49</v>
@@ -3981,16 +3785,16 @@
         <v>255</v>
       </c>
       <c r="F60" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="60"&gt;베드로전서  1 Peter  彼得前书  ペテロの第一の手紙&lt;/option&gt;</v>
+        <v>bk = "베드로전서  1 Peter  彼得前书  ペテロの第一の手紙";</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17">
       <c r="A61" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>48</v>
@@ -4005,16 +3809,16 @@
         <v>256</v>
       </c>
       <c r="F61" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="61"&gt;베드로후서  2 Peter  彼得后书  ペテロの第二の手紙&lt;/option&gt;</v>
+        <v>bk = "베드로후서  2 Peter  彼得后书  ペテロの第二の手紙";</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17">
       <c r="A62" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>47</v>
@@ -4029,16 +3833,16 @@
         <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="62"&gt;요한1서  1 John  约翰一书  ヨハネの第一の手紙&lt;/option&gt;</v>
+        <v>bk = "요한1서  1 John  约翰一书  ヨハネの第一の手紙";</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17">
       <c r="A63" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>46</v>
@@ -4053,16 +3857,16 @@
         <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="63"&gt;요한2서  2 John  约翰二书  ヨハネの第二の手紙&lt;/option&gt;</v>
+        <v>bk = "요한2서  2 John  约翰二书  ヨハネの第二の手紙";</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17">
       <c r="A64" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>45</v>
@@ -4077,16 +3881,16 @@
         <v>259</v>
       </c>
       <c r="F64" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="64"&gt;요한3서  3 John  约翰三书  ヨハネの第三の手紙&lt;/option&gt;</v>
+        <v>bk = "요한3서  3 John  约翰三书  ヨハネの第三の手紙";</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17">
       <c r="A65" t="s">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>44</v>
@@ -4101,16 +3905,16 @@
         <v>260</v>
       </c>
       <c r="F65" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value="65"&gt;유다서  Jude  犹大书  ユダの手紙&lt;/option&gt;</v>
+        <v>bk = "유다서  Jude  犹大书  ユダの手紙";</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17">
       <c r="A66" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>43</v>
@@ -4125,11 +3929,11 @@
         <v>261</v>
       </c>
       <c r="F66" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ref="G66" si="1">CONCATENATE(A66, B66,"  ", C66, "  ",D66, "  ", E66, F66)</f>
-        <v>&lt;option value="66"&gt;요한계시록  Revelation  启示录  ヨハネの默示錄&lt;/option&gt;</v>
+        <v>bk = "요한계시록  Revelation  启示录  ヨハネの默示錄";</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17">
@@ -4596,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4920,7 +4724,7 @@
         <v>15_ezra.json</v>
       </c>
       <c r="F15" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5403,7 +5207,7 @@
         <v>38_zechariah.json</v>
       </c>
       <c r="F38" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5613,7 +5417,7 @@
         <v>48_galatians.json</v>
       </c>
       <c r="F48" t="s">
-        <v>477</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5718,7 +5522,7 @@
         <v>53_thessalonians_2.json</v>
       </c>
       <c r="F53" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5781,7 +5585,7 @@
         <v>56_titus.json</v>
       </c>
       <c r="F56" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5802,7 +5606,7 @@
         <v>57_philemon.json</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6075,9 +5879,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
